--- a/NewProbableCasesOverTimeByCounty/2021-02-05.xlsx
+++ b/NewProbableCasesOverTimeByCounty/2021-02-05.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
-    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/04/2021 at 9:30 AM CST</t>
+    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/05/2021 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>New Probable 2021-02-04</t>
+  </si>
+  <si>
+    <t>New Probable 2021-02-05</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1289,6 +1292,7 @@
     <col min="95" max="95" width="12.0" customWidth="true"/>
     <col min="96" max="96" width="12.0" customWidth="true"/>
     <col min="97" max="97" width="12.0" customWidth="true"/>
+    <col min="98" max="98" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1593,10 +1597,13 @@
       <c r="CS3" t="s" s="10">
         <v>98</v>
       </c>
+      <c r="CT3" t="s" s="10">
+        <v>99</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1885,11 +1892,14 @@
       </c>
       <c r="CS4" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2177,12 +2187,15 @@
         <v>0.0</v>
       </c>
       <c r="CS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2471,11 +2484,14 @@
       </c>
       <c r="CS6" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2764,11 +2780,14 @@
       </c>
       <c r="CS7" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3056,12 +3075,15 @@
         <v>0.0</v>
       </c>
       <c r="CS8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT8" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3350,11 +3372,14 @@
       </c>
       <c r="CS9" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3643,11 +3668,14 @@
       </c>
       <c r="CS10" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -3936,11 +3964,14 @@
       </c>
       <c r="CS11" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4229,11 +4260,14 @@
       </c>
       <c r="CS12" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4522,11 +4556,14 @@
       </c>
       <c r="CS13" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4815,11 +4852,14 @@
       </c>
       <c r="CS14" t="n">
         <v>20.0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5107,12 +5147,15 @@
         <v>0.0</v>
       </c>
       <c r="CS15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5400,12 +5443,15 @@
         <v>0.0</v>
       </c>
       <c r="CS16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CT16" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5693,12 +5739,15 @@
         <v>0.0</v>
       </c>
       <c r="CS17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" t="n">
         <v>54.0</v>
@@ -5987,11 +6036,14 @@
       </c>
       <c r="CS18" t="n">
         <v>150.0</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>123.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -6279,12 +6331,15 @@
         <v>3.0</v>
       </c>
       <c r="CS19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT19" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -6572,12 +6627,15 @@
         <v>0.0</v>
       </c>
       <c r="CS20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -6866,11 +6924,14 @@
       </c>
       <c r="CS21" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -7159,11 +7220,14 @@
       </c>
       <c r="CS22" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -7452,11 +7516,14 @@
       </c>
       <c r="CS23" t="n">
         <v>96.0</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>158.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -7745,11 +7812,14 @@
       </c>
       <c r="CS24" t="n">
         <v>49.0</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -8038,11 +8108,14 @@
       </c>
       <c r="CS25" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -8330,12 +8403,15 @@
         <v>0.0</v>
       </c>
       <c r="CS26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -8624,11 +8700,14 @@
       </c>
       <c r="CS27" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT27" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -8916,12 +8995,15 @@
         <v>0.0</v>
       </c>
       <c r="CS28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT28" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -9210,11 +9292,14 @@
       </c>
       <c r="CS29" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CT29" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -9503,11 +9588,14 @@
       </c>
       <c r="CS30" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT30" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -9796,11 +9884,14 @@
       </c>
       <c r="CS31" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT31" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -10089,11 +10180,14 @@
       </c>
       <c r="CS32" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT32" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
@@ -10382,11 +10476,14 @@
       </c>
       <c r="CS33" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT33" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -10674,12 +10771,15 @@
         <v>0.0</v>
       </c>
       <c r="CS34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
@@ -10968,11 +11068,14 @@
       </c>
       <c r="CS35" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CT35" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
@@ -11260,12 +11363,15 @@
         <v>0.0</v>
       </c>
       <c r="CS36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT36" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
@@ -11554,11 +11660,14 @@
       </c>
       <c r="CS37" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CT37" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
@@ -11847,11 +11956,14 @@
       </c>
       <c r="CS38" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT38" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -12139,12 +12251,15 @@
         <v>0.0</v>
       </c>
       <c r="CS39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
@@ -12433,11 +12548,14 @@
       </c>
       <c r="CS40" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CT40" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
@@ -12725,12 +12843,15 @@
         <v>0.0</v>
       </c>
       <c r="CS41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT41" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
@@ -13018,12 +13139,15 @@
         <v>1.0</v>
       </c>
       <c r="CS42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT42" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
@@ -13311,12 +13435,15 @@
         <v>2.0</v>
       </c>
       <c r="CS43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT43" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
@@ -13605,11 +13732,14 @@
       </c>
       <c r="CS44" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT44" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
@@ -13897,12 +14027,15 @@
         <v>0.0</v>
       </c>
       <c r="CS45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B46" t="n">
         <v>30.0</v>
@@ -14191,11 +14324,14 @@
       </c>
       <c r="CS46" t="n">
         <v>146.0</v>
+      </c>
+      <c r="CT46" t="n">
+        <v>176.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
@@ -14483,12 +14619,15 @@
         <v>0.0</v>
       </c>
       <c r="CS47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT47" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
@@ -14777,11 +14916,14 @@
       </c>
       <c r="CS48" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CT48" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
@@ -15070,11 +15212,14 @@
       </c>
       <c r="CS49" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CT49" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
@@ -15363,11 +15508,14 @@
       </c>
       <c r="CS50" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT50" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
@@ -15656,11 +15804,14 @@
       </c>
       <c r="CS51" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT51" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
@@ -15949,11 +16100,14 @@
       </c>
       <c r="CS52" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CT52" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
@@ -16242,11 +16396,14 @@
       </c>
       <c r="CS53" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CT53" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
@@ -16534,12 +16691,15 @@
         <v>0.0</v>
       </c>
       <c r="CS54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
@@ -16828,11 +16988,14 @@
       </c>
       <c r="CS55" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CT55" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
@@ -17121,11 +17284,14 @@
       </c>
       <c r="CS56" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CT56" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
@@ -17414,11 +17580,14 @@
       </c>
       <c r="CS57" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT57" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
@@ -17706,12 +17875,15 @@
         <v>0.0</v>
       </c>
       <c r="CS58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT58" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
@@ -18000,11 +18172,14 @@
       </c>
       <c r="CS59" t="n">
         <v>-22.0</v>
+      </c>
+      <c r="CT59" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B60" t="n">
         <v>137.0</v>
@@ -18293,11 +18468,14 @@
       </c>
       <c r="CS60" t="n">
         <v>340.0</v>
+      </c>
+      <c r="CT60" t="n">
+        <v>360.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -18585,12 +18763,15 @@
         <v>0.0</v>
       </c>
       <c r="CS61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
@@ -18879,11 +19060,14 @@
       </c>
       <c r="CS62" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT62" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
@@ -19172,11 +19356,14 @@
       </c>
       <c r="CS63" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT63" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B64" t="n">
         <v>23.0</v>
@@ -19465,11 +19652,14 @@
       </c>
       <c r="CS64" t="n">
         <v>210.0</v>
+      </c>
+      <c r="CT64" t="n">
+        <v>179.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -19757,12 +19947,15 @@
         <v>0.0</v>
       </c>
       <c r="CS65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
@@ -20051,11 +20244,14 @@
       </c>
       <c r="CS66" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT66" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
@@ -20344,11 +20540,14 @@
       </c>
       <c r="CS67" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT67" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
@@ -20637,11 +20836,14 @@
       </c>
       <c r="CS68" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT68" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
@@ -20930,11 +21132,14 @@
       </c>
       <c r="CS69" t="n">
         <v>-11.0</v>
+      </c>
+      <c r="CT69" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
@@ -21223,11 +21428,14 @@
       </c>
       <c r="CS70" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CT70" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
@@ -21516,11 +21724,14 @@
       </c>
       <c r="CS71" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CT71" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -21809,11 +22020,14 @@
       </c>
       <c r="CS72" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT72" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
@@ -22102,11 +22316,14 @@
       </c>
       <c r="CS73" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CT73" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -22394,12 +22611,15 @@
         <v>0.0</v>
       </c>
       <c r="CS74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
@@ -22688,11 +22908,14 @@
       </c>
       <c r="CS75" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CT75" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
@@ -22981,11 +23204,14 @@
       </c>
       <c r="CS76" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT76" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
@@ -23274,11 +23500,14 @@
       </c>
       <c r="CS77" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CT77" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
@@ -23567,11 +23796,14 @@
       </c>
       <c r="CS78" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CT78" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -23859,12 +24091,15 @@
         <v>0.0</v>
       </c>
       <c r="CS79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
@@ -24153,11 +24388,14 @@
       </c>
       <c r="CS80" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CT80" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
@@ -24445,12 +24683,15 @@
         <v>0.0</v>
       </c>
       <c r="CS81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B82" t="n">
         <v>13.0</v>
@@ -24739,11 +24980,14 @@
       </c>
       <c r="CS82" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT82" t="n">
+        <v>296.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
@@ -25032,11 +25276,14 @@
       </c>
       <c r="CS83" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT83" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
@@ -25325,11 +25572,14 @@
       </c>
       <c r="CS84" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CT84" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
@@ -25618,11 +25868,14 @@
       </c>
       <c r="CS85" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CT85" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -25910,12 +26163,15 @@
         <v>0.0</v>
       </c>
       <c r="CS86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
@@ -26204,11 +26460,14 @@
       </c>
       <c r="CS87" t="n">
         <v>35.0</v>
+      </c>
+      <c r="CT87" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
@@ -26497,11 +26756,14 @@
       </c>
       <c r="CS88" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CT88" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
@@ -26790,11 +27052,14 @@
       </c>
       <c r="CS89" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CT89" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
@@ -27083,11 +27348,14 @@
       </c>
       <c r="CS90" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CT90" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
@@ -27375,12 +27643,15 @@
         <v>0.0</v>
       </c>
       <c r="CS91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT91" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
@@ -27668,12 +27939,15 @@
         <v>0.0</v>
       </c>
       <c r="CS92" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CT92" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
@@ -27962,11 +28236,14 @@
       </c>
       <c r="CS93" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT93" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -28254,12 +28531,15 @@
         <v>0.0</v>
       </c>
       <c r="CS94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
@@ -28548,11 +28828,14 @@
       </c>
       <c r="CS95" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT95" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
@@ -28841,11 +29124,14 @@
       </c>
       <c r="CS96" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CT96" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
@@ -29134,11 +29420,14 @@
       </c>
       <c r="CS97" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CT97" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -29426,12 +29715,15 @@
         <v>0.0</v>
       </c>
       <c r="CS98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
@@ -29719,12 +30011,15 @@
         <v>0.0</v>
       </c>
       <c r="CS99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT99" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
@@ -30012,12 +30307,15 @@
         <v>0.0</v>
       </c>
       <c r="CS100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT100" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
@@ -30306,11 +30604,14 @@
       </c>
       <c r="CS101" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CT101" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
@@ -30598,12 +30899,15 @@
         <v>0.0</v>
       </c>
       <c r="CS102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B103" t="n">
         <v>11.0</v>
@@ -30891,12 +31195,15 @@
         <v>51.0</v>
       </c>
       <c r="CS103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT103" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -31184,12 +31491,15 @@
         <v>0.0</v>
       </c>
       <c r="CS104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
@@ -31478,11 +31788,14 @@
       </c>
       <c r="CS105" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CT105" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
@@ -31771,11 +32084,14 @@
       </c>
       <c r="CS106" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CT106" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
@@ -32064,11 +32380,14 @@
       </c>
       <c r="CS107" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT107" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
@@ -32357,11 +32676,14 @@
       </c>
       <c r="CS108" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CT108" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
@@ -32649,12 +32971,15 @@
         <v>0.0</v>
       </c>
       <c r="CS109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT109" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
@@ -32943,11 +33268,14 @@
       </c>
       <c r="CS110" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT110" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -33236,11 +33564,14 @@
       </c>
       <c r="CS111" t="n">
         <v>262.0</v>
+      </c>
+      <c r="CT111" t="n">
+        <v>234.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
@@ -33529,11 +33860,14 @@
       </c>
       <c r="CS112" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CT112" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
@@ -33822,11 +34156,14 @@
       </c>
       <c r="CS113" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CT113" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
@@ -34115,11 +34452,14 @@
       </c>
       <c r="CS114" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CT114" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
@@ -34408,11 +34748,14 @@
       </c>
       <c r="CS115" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CT115" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
@@ -34701,11 +35044,14 @@
       </c>
       <c r="CS116" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CT116" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
@@ -34994,11 +35340,14 @@
       </c>
       <c r="CS117" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CT117" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
@@ -35287,11 +35636,14 @@
       </c>
       <c r="CS118" t="n">
         <v>-2.0</v>
+      </c>
+      <c r="CT118" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -35579,12 +35931,15 @@
         <v>0.0</v>
       </c>
       <c r="CS119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -35873,11 +36228,14 @@
       </c>
       <c r="CS120" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT120" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
@@ -36166,11 +36524,14 @@
       </c>
       <c r="CS121" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CT121" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
@@ -36458,12 +36819,15 @@
         <v>0.0</v>
       </c>
       <c r="CS122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT122" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
@@ -36752,11 +37116,14 @@
       </c>
       <c r="CS123" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT123" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
@@ -37045,11 +37412,14 @@
       </c>
       <c r="CS124" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CT124" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
@@ -37337,12 +37707,15 @@
         <v>9.0</v>
       </c>
       <c r="CS125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT125" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -37630,12 +38003,15 @@
         <v>0.0</v>
       </c>
       <c r="CS126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
@@ -37924,11 +38300,14 @@
       </c>
       <c r="CS127" t="n">
         <v>-5.0</v>
+      </c>
+      <c r="CT127" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
@@ -38217,11 +38596,14 @@
       </c>
       <c r="CS128" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT128" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
@@ -38510,11 +38892,14 @@
       </c>
       <c r="CS129" t="n">
         <v>44.0</v>
+      </c>
+      <c r="CT129" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
@@ -38802,12 +39187,15 @@
         <v>4.0</v>
       </c>
       <c r="CS130" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CT130" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
@@ -39096,11 +39484,14 @@
       </c>
       <c r="CS131" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT131" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
@@ -39389,11 +39780,14 @@
       </c>
       <c r="CS132" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CT132" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
@@ -39682,11 +40076,14 @@
       </c>
       <c r="CS133" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CT133" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -39975,11 +40372,14 @@
       </c>
       <c r="CS134" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT134" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
@@ -40267,12 +40667,15 @@
         <v>1.0</v>
       </c>
       <c r="CS135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT135" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
@@ -40561,11 +40964,14 @@
       </c>
       <c r="CS136" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CT136" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
@@ -40854,11 +41260,14 @@
       </c>
       <c r="CS137" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT137" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -41146,12 +41555,15 @@
         <v>0.0</v>
       </c>
       <c r="CS138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
@@ -41440,11 +41852,14 @@
       </c>
       <c r="CS139" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT139" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
@@ -41733,11 +42148,14 @@
       </c>
       <c r="CS140" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CT140" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
@@ -42025,12 +42443,15 @@
         <v>0.0</v>
       </c>
       <c r="CS141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT141" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
@@ -42319,11 +42740,14 @@
       </c>
       <c r="CS142" t="n">
         <v>32.0</v>
+      </c>
+      <c r="CT142" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B143" t="n">
         <v>7.0</v>
@@ -42612,11 +43036,14 @@
       </c>
       <c r="CS143" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT143" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
@@ -42905,11 +43332,14 @@
       </c>
       <c r="CS144" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CT144" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
@@ -43197,12 +43627,15 @@
         <v>0.0</v>
       </c>
       <c r="CS145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT145" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
@@ -43491,11 +43924,14 @@
       </c>
       <c r="CS146" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CT146" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
@@ -43784,11 +44220,14 @@
       </c>
       <c r="CS147" t="n">
         <v>35.0</v>
+      </c>
+      <c r="CT147" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
@@ -44076,12 +44515,15 @@
         <v>1.0</v>
       </c>
       <c r="CS148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT148" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B149" t="n">
         <v>1.0</v>
@@ -44370,11 +44812,14 @@
       </c>
       <c r="CS149" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CT149" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
@@ -44663,11 +45108,14 @@
       </c>
       <c r="CS150" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CT150" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
@@ -44955,12 +45403,15 @@
         <v>0.0</v>
       </c>
       <c r="CS151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT151" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
@@ -45249,11 +45700,14 @@
       </c>
       <c r="CS152" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT152" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
@@ -45542,11 +45996,14 @@
       </c>
       <c r="CS153" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CT153" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
@@ -45834,12 +46291,15 @@
         <v>0.0</v>
       </c>
       <c r="CS154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -46127,12 +46587,15 @@
         <v>0.0</v>
       </c>
       <c r="CS155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -46420,12 +46883,15 @@
         <v>0.0</v>
       </c>
       <c r="CS156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
@@ -46714,11 +47180,14 @@
       </c>
       <c r="CS157" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT157" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -47006,12 +47475,15 @@
         <v>0.0</v>
       </c>
       <c r="CS158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -47299,12 +47771,15 @@
         <v>0.0</v>
       </c>
       <c r="CS159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT159" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
@@ -47592,12 +48067,15 @@
         <v>4.0</v>
       </c>
       <c r="CS160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT160" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
@@ -47886,11 +48364,14 @@
       </c>
       <c r="CS161" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT161" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
@@ -48178,12 +48659,15 @@
         <v>5.0</v>
       </c>
       <c r="CS162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT162" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
@@ -48471,12 +48955,15 @@
         <v>3.0</v>
       </c>
       <c r="CS163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT163" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
@@ -48765,11 +49252,14 @@
       </c>
       <c r="CS164" t="n">
         <v>-10.0</v>
+      </c>
+      <c r="CT164" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -49057,12 +49547,15 @@
         <v>0.0</v>
       </c>
       <c r="CS165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
@@ -49350,12 +49843,15 @@
         <v>6.0</v>
       </c>
       <c r="CS166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT166" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
@@ -49644,11 +50140,14 @@
       </c>
       <c r="CS167" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT167" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -49936,12 +50435,15 @@
         <v>0.0</v>
       </c>
       <c r="CS168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
@@ -50229,12 +50731,15 @@
         <v>16.0</v>
       </c>
       <c r="CS169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT169" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
@@ -50522,12 +51027,15 @@
         <v>2.0</v>
       </c>
       <c r="CS170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT170" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -50815,12 +51323,15 @@
         <v>0.0</v>
       </c>
       <c r="CS171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
@@ -51108,12 +51619,15 @@
         <v>1.0</v>
       </c>
       <c r="CS172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT172" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
@@ -51402,11 +51916,14 @@
       </c>
       <c r="CS173" t="n">
         <v>111.0</v>
+      </c>
+      <c r="CT173" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
@@ -51695,11 +52212,14 @@
       </c>
       <c r="CS174" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT174" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
@@ -51988,11 +52508,14 @@
       </c>
       <c r="CS175" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT175" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
@@ -52280,12 +52803,15 @@
         <v>0.0</v>
       </c>
       <c r="CS176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT176" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
@@ -52574,11 +53100,14 @@
       </c>
       <c r="CS177" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT177" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
@@ -52867,11 +53396,14 @@
       </c>
       <c r="CS178" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CT178" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
@@ -53160,11 +53692,14 @@
       </c>
       <c r="CS179" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT179" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -53452,12 +53987,15 @@
         <v>0.0</v>
       </c>
       <c r="CS180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B181" t="n">
         <v>23.0</v>
@@ -53746,11 +54284,14 @@
       </c>
       <c r="CS181" t="n">
         <v>44.0</v>
+      </c>
+      <c r="CT181" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
@@ -54039,11 +54580,14 @@
       </c>
       <c r="CS182" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CT182" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
@@ -54332,11 +54876,14 @@
       </c>
       <c r="CS183" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT183" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
@@ -54624,12 +55171,15 @@
         <v>68.0</v>
       </c>
       <c r="CS184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT184" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
@@ -54918,11 +55468,14 @@
       </c>
       <c r="CS185" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT185" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
@@ -55211,11 +55764,14 @@
       </c>
       <c r="CS186" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CT186" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
@@ -55504,11 +56060,14 @@
       </c>
       <c r="CS187" t="n">
         <v>35.0</v>
+      </c>
+      <c r="CT187" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
@@ -55797,11 +56356,14 @@
       </c>
       <c r="CS188" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT188" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
@@ -56090,11 +56652,14 @@
       </c>
       <c r="CS189" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT189" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
@@ -56383,11 +56948,14 @@
       </c>
       <c r="CS190" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT190" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -56675,12 +57243,15 @@
         <v>0.0</v>
       </c>
       <c r="CS191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
@@ -56969,11 +57540,14 @@
       </c>
       <c r="CS192" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT192" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
@@ -57262,11 +57836,14 @@
       </c>
       <c r="CS193" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT193" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -57554,12 +58131,15 @@
         <v>0.0</v>
       </c>
       <c r="CS194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
@@ -57848,11 +58428,14 @@
       </c>
       <c r="CS195" t="n">
         <v>-5.0</v>
+      </c>
+      <c r="CT195" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -58141,11 +58724,14 @@
       </c>
       <c r="CS196" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT196" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
@@ -58434,11 +59020,14 @@
       </c>
       <c r="CS197" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT197" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
@@ -58727,11 +59316,14 @@
       </c>
       <c r="CS198" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CT198" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
@@ -59020,11 +59612,14 @@
       </c>
       <c r="CS199" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT199" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
@@ -59312,12 +59907,15 @@
         <v>0.0</v>
       </c>
       <c r="CS200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT200" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
@@ -59606,11 +60204,14 @@
       </c>
       <c r="CS201" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CT201" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
@@ -59899,11 +60500,14 @@
       </c>
       <c r="CS202" t="n">
         <v>20.0</v>
+      </c>
+      <c r="CT202" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
@@ -60192,11 +60796,14 @@
       </c>
       <c r="CS203" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT203" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
@@ -60485,11 +61092,14 @@
       </c>
       <c r="CS204" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CT204" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
@@ -60778,11 +61388,14 @@
       </c>
       <c r="CS205" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CT205" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
@@ -61071,11 +61684,14 @@
       </c>
       <c r="CS206" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT206" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
@@ -61364,11 +61980,14 @@
       </c>
       <c r="CS207" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CT207" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -61656,12 +62275,15 @@
         <v>0.0</v>
       </c>
       <c r="CS208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT208" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
@@ -61950,11 +62572,14 @@
       </c>
       <c r="CS209" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CT209" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
@@ -62243,11 +62868,14 @@
       </c>
       <c r="CS210" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT210" t="n">
+        <v>-5.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -62535,12 +63163,15 @@
         <v>0.0</v>
       </c>
       <c r="CS211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
@@ -62829,11 +63460,14 @@
       </c>
       <c r="CS212" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT212" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B213" t="n">
         <v>1.0</v>
@@ -63122,11 +63756,14 @@
       </c>
       <c r="CS213" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CT213" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
@@ -63414,12 +64051,15 @@
         <v>0.0</v>
       </c>
       <c r="CS214" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT214" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
@@ -63708,11 +64348,14 @@
       </c>
       <c r="CS215" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT215" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
@@ -64001,11 +64644,14 @@
       </c>
       <c r="CS216" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT216" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -64294,11 +64940,14 @@
       </c>
       <c r="CS217" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CT217" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
@@ -64587,11 +65236,14 @@
       </c>
       <c r="CS218" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CT218" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
@@ -64879,12 +65531,15 @@
         <v>0.0</v>
       </c>
       <c r="CS219" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT219" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
@@ -65172,12 +65827,15 @@
         <v>0.0</v>
       </c>
       <c r="CS220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
@@ -65466,11 +66124,14 @@
       </c>
       <c r="CS221" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT221" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
@@ -65758,12 +66419,15 @@
         <v>1.0</v>
       </c>
       <c r="CS222" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT222" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B223" t="n">
         <v>178.0</v>
@@ -66052,11 +66716,14 @@
       </c>
       <c r="CS223" t="n">
         <v>314.0</v>
+      </c>
+      <c r="CT223" t="n">
+        <v>362.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B224" t="n">
         <v>35.0</v>
@@ -66345,11 +67012,14 @@
       </c>
       <c r="CS224" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CT224" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
@@ -66637,12 +67307,15 @@
         <v>0.0</v>
       </c>
       <c r="CS225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -66930,12 +67603,15 @@
         <v>0.0</v>
       </c>
       <c r="CS226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
@@ -67223,12 +67899,15 @@
         <v>0.0</v>
       </c>
       <c r="CS227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
@@ -67517,11 +68196,14 @@
       </c>
       <c r="CS228" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CT228" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B229" t="n">
         <v>38.0</v>
@@ -67810,11 +68492,14 @@
       </c>
       <c r="CS229" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CT229" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -68102,12 +68787,15 @@
         <v>0.0</v>
       </c>
       <c r="CS230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
@@ -68396,11 +69084,14 @@
       </c>
       <c r="CS231" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT231" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
@@ -68688,12 +69379,15 @@
         <v>0.0</v>
       </c>
       <c r="CS232" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CT232" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
@@ -68982,11 +69676,14 @@
       </c>
       <c r="CS233" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CT233" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
@@ -69275,11 +69972,14 @@
       </c>
       <c r="CS234" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CT234" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
@@ -69568,11 +70268,14 @@
       </c>
       <c r="CS235" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT235" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -69860,12 +70563,15 @@
         <v>0.0</v>
       </c>
       <c r="CS236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
@@ -70154,11 +70860,14 @@
       </c>
       <c r="CS237" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT237" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
@@ -70446,12 +71155,15 @@
         <v>0.0</v>
       </c>
       <c r="CS238" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT238" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B239" t="n">
         <v>3.0</v>
@@ -70740,11 +71452,14 @@
       </c>
       <c r="CS239" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT239" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
@@ -71033,11 +71748,14 @@
       </c>
       <c r="CS240" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT240" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
@@ -71326,11 +72044,14 @@
       </c>
       <c r="CS241" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CT241" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
@@ -71619,11 +72340,14 @@
       </c>
       <c r="CS242" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CT242" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -71911,12 +72635,15 @@
         <v>0.0</v>
       </c>
       <c r="CS243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
@@ -72204,12 +72931,15 @@
         <v>4.0</v>
       </c>
       <c r="CS244" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CT244" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
@@ -72497,12 +73227,15 @@
         <v>0.0</v>
       </c>
       <c r="CS245" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT245" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -72790,12 +73523,15 @@
         <v>0.0</v>
       </c>
       <c r="CS246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
@@ -73083,12 +73819,15 @@
         <v>1.0</v>
       </c>
       <c r="CS247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT247" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -73376,12 +74115,15 @@
         <v>1.0</v>
       </c>
       <c r="CS248" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CT248" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
@@ -73670,11 +74412,14 @@
       </c>
       <c r="CS249" t="n">
         <v>78.0</v>
+      </c>
+      <c r="CT249" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
@@ -73963,11 +74708,14 @@
       </c>
       <c r="CS250" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CT250" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
@@ -74255,12 +75003,15 @@
         <v>0.0</v>
       </c>
       <c r="CS251" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CT251" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
@@ -74549,11 +75300,14 @@
       </c>
       <c r="CS252" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CT252" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
@@ -74842,11 +75596,14 @@
       </c>
       <c r="CS253" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT253" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -75134,12 +75891,15 @@
         <v>0.0</v>
       </c>
       <c r="CS254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
@@ -75428,11 +76188,14 @@
       </c>
       <c r="CS255" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT255" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
@@ -75721,11 +76484,14 @@
       </c>
       <c r="CS256" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CT256" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
@@ -76014,11 +76780,14 @@
       </c>
       <c r="CS257" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CT257" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B258"/>
       <c r="C258"/>
@@ -76116,10 +76885,11 @@
       <c r="CQ258"/>
       <c r="CR258"/>
       <c r="CS258"/>
+      <c r="CT258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B259"/>
       <c r="C259"/>
@@ -76217,6 +76987,7 @@
       <c r="CQ259"/>
       <c r="CR259"/>
       <c r="CS259"/>
+      <c r="CT259"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
